--- a/data/geodata.xlsx
+++ b/data/geodata.xlsx
@@ -981,7 +981,7 @@
   <dimension ref="A1:E577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E3">
         <f ca="1" t="shared" ref="E3:E11" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E4">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E6">
         <f ca="1" t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E7">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E8">
         <f ca="1" t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E9">
         <f ca="1" t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E12">
         <f ca="1" t="shared" ref="E12:E21" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E13">
         <f ca="1" t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E14">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E17">
         <f ca="1" t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E18">
         <f ca="1" t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E21">
         <f ca="1" t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E22">
         <f ca="1" t="shared" ref="E22:E31" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E23">
         <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E24">
         <f ca="1" t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E25">
         <f ca="1" t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E26">
         <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E27">
         <f ca="1" t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E29">
         <f ca="1" t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E30">
         <f ca="1" t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E32">
         <f ca="1" t="shared" ref="E32:E41" si="3">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E34">
         <f ca="1" t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E35">
         <f ca="1" t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E36">
         <f ca="1" t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E37">
         <f ca="1" t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E38">
         <f ca="1" t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E40">
         <f ca="1" t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E41">
         <f ca="1" t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E44">
         <f ca="1" t="shared" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E46">
         <f ca="1" t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E47">
         <f ca="1" t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E48">
         <f ca="1" t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E49">
         <f ca="1" t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E50">
         <f ca="1" t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E52">
         <f ca="1" t="shared" ref="E52:E61" si="5">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E53">
         <f ca="1" t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E54">
         <f ca="1" t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E56">
         <f ca="1" t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E57">
         <f ca="1" t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E60">
         <f ca="1" t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E61">
         <f ca="1" t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E62">
         <f ca="1" t="shared" ref="E62:E71" si="6">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E63">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E64">
         <f ca="1" t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E65">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E67">
         <f ca="1" t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E68">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E69">
         <f ca="1" t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E70">
         <f ca="1" t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E71">
         <f ca="1" t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E72">
         <f ca="1" t="shared" ref="E72:E81" si="7">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E73">
         <f ca="1" t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E74">
         <f ca="1" t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E77">
         <f ca="1" t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="E78">
         <f ca="1" t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E79">
         <f ca="1" t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E80">
         <f ca="1" t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="E81">
         <f ca="1" t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E82">
         <f ca="1" t="shared" ref="E82:E91" si="8">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E83">
         <f ca="1" t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E85">
         <f ca="1" t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E89">
         <f ca="1" t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E90">
         <f ca="1" t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E91">
         <f ca="1" t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E92">
         <f ca="1" t="shared" ref="E92:E99" si="9">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E93">
         <f ca="1" t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E95">
         <f ca="1" t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E96">
         <f ca="1" t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="E97">
         <f ca="1" t="shared" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E100">
         <f ca="1" t="shared" ref="E100:E109" si="10">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E101">
         <f ca="1" t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E102">
         <f ca="1" t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E105">
         <f ca="1" t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E108">
         <f ca="1" t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E111">
         <f ca="1" t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="E112">
         <f ca="1" t="shared" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="E113">
         <f ca="1" t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E114">
         <f ca="1" t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="E116">
         <f ca="1" t="shared" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="E117">
         <f ca="1" t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="E118">
         <f ca="1" t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="E120">
         <f ca="1" t="shared" ref="E120:E129" si="12">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="E121">
         <f ca="1" t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="E122">
         <f ca="1" t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="E124">
         <f ca="1" t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="E126">
         <f ca="1" t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E127">
         <f ca="1" t="shared" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="E128">
         <f ca="1" t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E129">
         <f ca="1" t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E130">
         <f ca="1" t="shared" ref="E130:E139" si="13">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="E131">
         <f ca="1" t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E134">
         <f ca="1" t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="E135">
         <f ca="1" t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="E136">
         <f ca="1" t="shared" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E137">
         <f ca="1" t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="E138">
         <f ca="1" t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E140">
         <f ca="1" t="shared" ref="E140:E149" si="14">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="E142">
         <f ca="1" t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E143">
         <f ca="1" t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E144">
         <f ca="1" t="shared" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E145">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E148">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="E149">
         <f ca="1" t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="E152">
         <f ca="1" t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="E155">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="E156">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E159">
         <f ca="1" t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E160">
         <f ca="1" t="shared" ref="E160:E169" si="16">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E161">
         <f ca="1" t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="E163">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="E164">
         <f ca="1" t="shared" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="E165">
         <f ca="1" t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="E166">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E167">
         <f ca="1" t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E168">
         <f ca="1" t="shared" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="E169">
         <f ca="1" t="shared" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="E170">
         <f ca="1" t="shared" ref="E170:E179" si="17">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E172">
         <f ca="1" t="shared" si="17"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="E174">
         <f ca="1" t="shared" si="17"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E175">
         <f ca="1" t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="E177">
         <f ca="1" t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="E178">
         <f ca="1" t="shared" si="17"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="E179">
         <f ca="1" t="shared" si="17"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="E182">
         <f ca="1" t="shared" si="18"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E183">
         <f ca="1" t="shared" si="18"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="E184">
         <f ca="1" t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="E185">
         <f ca="1" t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="E186">
         <f ca="1" t="shared" si="18"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E187">
         <f ca="1" t="shared" si="18"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E188">
         <f ca="1" t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="E192">
         <f ca="1" t="shared" si="19"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="E193">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E194">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="E195">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="E196">
         <f ca="1" t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E197">
         <f ca="1" t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="E198">
         <f ca="1" t="shared" si="19"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="E200">
         <f ca="1" t="shared" ref="E200:E209" si="20">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E201">
         <f ca="1" t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E202">
         <f ca="1" t="shared" si="20"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="E204">
         <f ca="1" t="shared" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="E205">
         <f ca="1" t="shared" si="20"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="E207">
         <f ca="1" t="shared" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E208">
         <f ca="1" t="shared" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="E210">
         <f ca="1" t="shared" ref="E210:E219" si="21">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="E211">
         <f ca="1" t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="E212">
         <f ca="1" t="shared" si="21"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="E213">
         <f ca="1" t="shared" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="E214">
         <f ca="1" t="shared" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="E216">
         <f ca="1" t="shared" si="21"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="E218">
         <f ca="1" t="shared" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="E219">
         <f ca="1" t="shared" si="21"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="E221">
         <f ca="1" t="shared" si="22"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E222">
         <f ca="1" t="shared" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="E223">
         <f ca="1" t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="E224">
         <f ca="1" t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="E225">
         <f ca="1" t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="E226">
         <f ca="1" t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E229">
         <f ca="1" t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="E230">
         <f ca="1" t="shared" ref="E230:E239" si="23">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="E231">
         <f ca="1" t="shared" si="23"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="E233">
         <f ca="1" t="shared" si="23"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="E234">
         <f ca="1" t="shared" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="E235">
         <f ca="1" t="shared" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="E238">
         <f ca="1" t="shared" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="E240">
         <f ca="1" t="shared" ref="E240:E249" si="24">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="E241">
         <f ca="1" t="shared" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="E243">
         <f ca="1" t="shared" si="24"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="E244">
         <f ca="1" t="shared" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="E246">
         <f ca="1" t="shared" si="24"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="E247">
         <f ca="1" t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="E250">
         <f ca="1" t="shared" ref="E250:E259" si="25">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="E251">
         <f ca="1" t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="E252">
         <f ca="1" t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="E253">
         <f ca="1" t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="E256">
         <f ca="1" t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="E257">
         <f ca="1" t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="E259">
         <f ca="1" t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="E261">
         <f ca="1" t="shared" si="26"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="E262">
         <f ca="1" t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="E263">
         <f ca="1" t="shared" si="26"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="E264">
         <f ca="1" t="shared" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="E265">
         <f ca="1" t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E266">
         <f ca="1" t="shared" si="26"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="E267">
         <f ca="1" t="shared" si="26"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="E268">
         <f ca="1" t="shared" si="26"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="E269">
         <f ca="1" t="shared" si="26"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="E270">
         <f ca="1" t="shared" ref="E270:E279" si="27">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="E271">
         <f ca="1" t="shared" si="27"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="E272">
         <f ca="1" t="shared" si="27"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="E273">
         <f ca="1" t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="E274">
         <f ca="1" t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="E275">
         <f ca="1" t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5954,7 +5954,7 @@
       </c>
       <c r="E276">
         <f ca="1" t="shared" si="27"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="E277">
         <f ca="1" t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="E278">
         <f ca="1" t="shared" si="27"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="E279">
         <f ca="1" t="shared" si="27"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="E280">
         <f ca="1" t="shared" ref="E280:E289" si="28">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="E281">
         <f ca="1" t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="E282">
         <f ca="1" t="shared" si="28"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="E283">
         <f ca="1" t="shared" si="28"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="E285">
         <f ca="1" t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="E286">
         <f ca="1" t="shared" si="28"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="E287">
         <f ca="1" t="shared" si="28"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="E288">
         <f ca="1" t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="E289">
         <f ca="1" t="shared" si="28"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E290">
         <f ca="1" t="shared" ref="E290:E299" si="29">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="E291">
         <f ca="1" t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E292">
         <f ca="1" t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="E294">
         <f ca="1" t="shared" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="E295">
         <f ca="1" t="shared" si="29"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="E298">
         <f ca="1" t="shared" si="29"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E299">
         <f ca="1" t="shared" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="E301">
         <f ca="1" t="shared" si="30"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="E302">
         <f ca="1" t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E303">
         <f ca="1" t="shared" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="E304">
         <f ca="1" t="shared" si="30"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="E306">
         <f ca="1" t="shared" si="30"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="E307">
         <f ca="1" t="shared" si="30"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="E308">
         <f ca="1" t="shared" si="30"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="E311">
         <f ca="1" t="shared" si="31"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="E312">
         <f ca="1" t="shared" si="31"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="E313">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="E314">
         <f ca="1" t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="E315">
         <f ca="1" t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="E318">
         <f ca="1" t="shared" si="31"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="E319">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="E321">
         <f ca="1" t="shared" si="32"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="E323">
         <f ca="1" t="shared" si="32"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="E326">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="E327">
         <f ca="1" t="shared" si="32"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="E328">
         <f ca="1" t="shared" si="32"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="E329">
         <f ca="1" t="shared" si="32"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E330">
         <f ca="1" t="shared" ref="E330:E339" si="33">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="E332">
         <f ca="1" t="shared" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="E333">
         <f ca="1" t="shared" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="E334">
         <f ca="1" t="shared" si="33"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E335">
         <f ca="1" t="shared" si="33"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="E336">
         <f ca="1" t="shared" si="33"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="E338">
         <f ca="1" t="shared" si="33"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="E339">
         <f ca="1" t="shared" si="33"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="E340">
         <f ca="1" t="shared" ref="E340:E349" si="34">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="E341">
         <f ca="1" t="shared" si="34"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="E342">
         <f ca="1" t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="E343">
         <f ca="1" t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="E345">
         <f ca="1" t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E346">
         <f ca="1" t="shared" si="34"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="E347">
         <f ca="1" t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="E348">
         <f ca="1" t="shared" si="34"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E350">
         <f ca="1" t="shared" ref="E350:E359" si="35">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="E352">
         <f ca="1" t="shared" si="35"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="E353">
         <f ca="1" t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="E354">
         <f ca="1" t="shared" si="35"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E355">
         <f ca="1" t="shared" si="35"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="E356">
         <f ca="1" t="shared" si="35"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="E357">
         <f ca="1" t="shared" si="35"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="E358">
         <f ca="1" t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="E359">
         <f ca="1" t="shared" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="E360">
         <f ca="1" t="shared" ref="E360:E369" si="36">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="E362">
         <f ca="1" t="shared" si="36"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="E363">
         <f ca="1" t="shared" si="36"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="E365">
         <f ca="1" t="shared" si="36"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="E366">
         <f ca="1" t="shared" si="36"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="E371">
         <f ca="1" t="shared" si="37"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="E372">
         <f ca="1" t="shared" si="37"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="E373">
         <f ca="1" t="shared" si="37"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="E374">
         <f ca="1" t="shared" si="37"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="E375">
         <f ca="1" t="shared" si="37"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="E378">
         <f ca="1" t="shared" si="37"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="E380">
         <f ca="1" t="shared" ref="E380:E389" si="38">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="E381">
         <f ca="1" t="shared" si="38"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="E383">
         <f ca="1" t="shared" si="38"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="E385">
         <f ca="1" t="shared" si="38"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="E388">
         <f ca="1" t="shared" si="38"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="E389">
         <f ca="1" t="shared" si="38"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="E390">
         <f ca="1" t="shared" ref="E390:E399" si="39">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="E391">
         <f ca="1" t="shared" si="39"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="E392">
         <f ca="1" t="shared" si="39"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="E393">
         <f ca="1" t="shared" si="39"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="E394">
         <f ca="1" t="shared" si="39"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="E395">
         <f ca="1" t="shared" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="E397">
         <f ca="1" t="shared" si="39"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="E398">
         <f ca="1" t="shared" si="39"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="E400">
         <f ca="1" t="shared" ref="E400:E409" si="40">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="E401">
         <f ca="1" t="shared" si="40"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="E402">
         <f ca="1" t="shared" si="40"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="E403">
         <f ca="1" t="shared" si="40"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="E406">
         <f ca="1" t="shared" si="40"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="E408">
         <f ca="1" t="shared" si="40"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="E409">
         <f ca="1" t="shared" si="40"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="E410">
         <f ca="1" t="shared" ref="E410:E419" si="41">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="E411">
         <f ca="1" t="shared" si="41"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="E412">
         <f ca="1" t="shared" si="41"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="E415">
         <f ca="1" t="shared" si="41"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="E416">
         <f ca="1" t="shared" si="41"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="E417">
         <f ca="1" t="shared" si="41"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="E418">
         <f ca="1" t="shared" si="41"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="E419">
         <f ca="1" t="shared" si="41"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="E420">
         <f ca="1" t="shared" ref="E420:E429" si="42">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="E421">
         <f ca="1" t="shared" si="42"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="E422">
         <f ca="1" t="shared" si="42"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="E423">
         <f ca="1" t="shared" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="E424">
         <f ca="1" t="shared" si="42"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="E425">
         <f ca="1" t="shared" si="42"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="E427">
         <f ca="1" t="shared" si="42"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="E428">
         <f ca="1" t="shared" si="42"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="E429">
         <f ca="1" t="shared" si="42"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="E432">
         <f ca="1" t="shared" si="43"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="E433">
         <f ca="1" t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="E434">
         <f ca="1" t="shared" si="43"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="E435">
         <f ca="1" t="shared" si="43"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="E438">
         <f ca="1" t="shared" si="43"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="E440">
         <f ca="1" t="shared" ref="E440:E449" si="44">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="E441">
         <f ca="1" t="shared" si="44"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="E442">
         <f ca="1" t="shared" si="44"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="E443">
         <f ca="1" t="shared" si="44"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="E444">
         <f ca="1" t="shared" si="44"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="E445">
         <f ca="1" t="shared" si="44"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="E446">
         <f ca="1" t="shared" si="44"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -9032,7 +9032,7 @@
       </c>
       <c r="E447">
         <f ca="1" t="shared" si="44"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="E449">
         <f ca="1" t="shared" si="44"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="E452">
         <f ca="1" t="shared" si="45"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="E454">
         <f ca="1" t="shared" si="45"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="E455">
         <f ca="1" t="shared" si="45"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="E456">
         <f ca="1" t="shared" si="45"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="E457">
         <f ca="1" t="shared" si="45"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="E458">
         <f ca="1" t="shared" si="45"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="E459">
         <f ca="1" t="shared" si="45"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="E462">
         <f ca="1" t="shared" si="46"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="E463">
         <f ca="1" t="shared" si="46"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="E464">
         <f ca="1" t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="E465">
         <f ca="1" t="shared" si="46"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E466">
         <f ca="1" t="shared" si="46"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="E467">
         <f ca="1" t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="E469">
         <f ca="1" t="shared" si="46"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -9446,7 +9446,7 @@
       </c>
       <c r="E470">
         <f ca="1" t="shared" ref="E470:E479" si="47">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="E471">
         <f ca="1" t="shared" si="47"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="E472">
         <f ca="1" t="shared" si="47"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="E473">
         <f ca="1" t="shared" si="47"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="E474">
         <f ca="1" t="shared" si="47"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="E475">
         <f ca="1" t="shared" si="47"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="E476">
         <f ca="1" t="shared" si="47"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="E477">
         <f ca="1" t="shared" si="47"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="E478">
         <f ca="1" t="shared" si="47"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="E479">
         <f ca="1" t="shared" si="47"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="E480">
         <f ca="1" t="shared" ref="E480:E489" si="48">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="E481">
         <f ca="1" t="shared" si="48"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="E482">
         <f ca="1" t="shared" si="48"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="E483">
         <f ca="1" t="shared" si="48"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="E484">
         <f ca="1" t="shared" si="48"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="E485">
         <f ca="1" t="shared" si="48"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="E486">
         <f ca="1" t="shared" si="48"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="E487">
         <f ca="1" t="shared" si="48"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="E489">
         <f ca="1" t="shared" si="48"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="E491">
         <f ca="1" t="shared" si="49"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="E492">
         <f ca="1" t="shared" si="49"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="E494">
         <f ca="1" t="shared" si="49"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="E495">
         <f ca="1" t="shared" si="49"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="E496">
         <f ca="1" t="shared" si="49"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="E497">
         <f ca="1" t="shared" si="49"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="E498">
         <f ca="1" t="shared" si="49"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="E500">
         <f ca="1" t="shared" ref="E500:E509" si="50">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="E501">
         <f ca="1" t="shared" si="50"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="E504">
         <f ca="1" t="shared" si="50"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -10076,7 +10076,7 @@
       </c>
       <c r="E505">
         <f ca="1" t="shared" si="50"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="E506">
         <f ca="1" t="shared" si="50"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="E507">
         <f ca="1" t="shared" si="50"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -10130,7 +10130,7 @@
       </c>
       <c r="E508">
         <f ca="1" t="shared" si="50"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="E509">
         <f ca="1" t="shared" si="50"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="E510">
         <f ca="1" t="shared" ref="E510:E519" si="51">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -10202,7 +10202,7 @@
       </c>
       <c r="E512">
         <f ca="1" t="shared" si="51"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="E515">
         <f ca="1" t="shared" si="51"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="E517">
         <f ca="1" t="shared" si="51"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="E520">
         <f ca="1" t="shared" ref="E520:E529" si="52">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="E521">
         <f ca="1" t="shared" si="52"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="E523">
         <f ca="1" t="shared" si="52"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="E524">
         <f ca="1" t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -10436,7 +10436,7 @@
       </c>
       <c r="E525">
         <f ca="1" t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="E526">
         <f ca="1" t="shared" si="52"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="E527">
         <f ca="1" t="shared" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="E528">
         <f ca="1" t="shared" si="52"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="E529">
         <f ca="1" t="shared" si="52"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="E530">
         <f ca="1" t="shared" ref="E530:E539" si="53">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="E531">
         <f ca="1" t="shared" si="53"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="E532">
         <f ca="1" t="shared" si="53"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="E535">
         <f ca="1" t="shared" si="53"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="E537">
         <f ca="1" t="shared" si="53"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="E539">
         <f ca="1" t="shared" si="53"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="E540">
         <f ca="1" t="shared" ref="E540:E549" si="54">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="E541">
         <f ca="1" t="shared" si="54"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="E542">
         <f ca="1" t="shared" si="54"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="E545">
         <f ca="1" t="shared" si="54"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -10814,7 +10814,7 @@
       </c>
       <c r="E546">
         <f ca="1" t="shared" si="54"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="E547">
         <f ca="1" t="shared" si="54"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="E548">
         <f ca="1" t="shared" si="54"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="E549">
         <f ca="1" t="shared" si="54"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="E552">
         <f ca="1" t="shared" si="55"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -10940,7 +10940,7 @@
       </c>
       <c r="E553">
         <f ca="1" t="shared" si="55"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E555">
         <f ca="1" t="shared" si="55"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="E557">
         <f ca="1" t="shared" si="55"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="E559">
         <f ca="1" t="shared" si="55"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="E560">
         <f ca="1" t="shared" ref="E560:E569" si="56">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="E561">
         <f ca="1" t="shared" si="56"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="E562">
         <f ca="1" t="shared" si="56"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="E563">
         <f ca="1" t="shared" si="56"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="E564">
         <f ca="1" t="shared" si="56"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="E565">
         <f ca="1" t="shared" si="56"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="E566">
         <f ca="1" t="shared" si="56"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="E567">
         <f ca="1" t="shared" si="56"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -11210,7 +11210,7 @@
       </c>
       <c r="E568">
         <f ca="1" t="shared" si="56"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="E570">
         <f ca="1" t="shared" ref="E570:E577" si="57">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="E571">
         <f ca="1" t="shared" si="57"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="E572">
         <f ca="1" t="shared" si="57"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="E573">
         <f ca="1" t="shared" si="57"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="E575">
         <f ca="1" t="shared" si="57"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="E576">
         <f ca="1" t="shared" si="57"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577" spans="1:5">
